--- a/biology/Origine et évolution du vivant/Dinoflagellata_(classification_phylogénétique)/Dinoflagellata_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Dinoflagellata_(classification_phylogénétique)/Dinoflagellata_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Dinoflagellata lato sensu (Dinozoa, Dinozoaires, Dinoflagellés), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -635,7 +649,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -655,8 +669,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Classification proposée par Adl et al. 2005
-Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Dinoflagellata.
+          <t>Classification proposée par Adl et al. 2005</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce comité a proposé une nouvelle classification, remplaçant celle des anciens Protistes et tenant compte des phylogénies moléculaires récentes. Elle regroupe les Eucaryotes en six groupes réputés monophylétiques. Voici ce qui concerne les Dinoflagellata.
 Classification proposée par Adl et al. 2005
 ▲
 Dinozoa
@@ -682,7 +701,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -700,17 +719,86 @@
           <t>En savoir plus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
-Sources bibliographiques de référence
-Huan Zhang, Debashish Bhattacharya et Senjie Lin (2005) « Phylogeny of Dinoflagellates Based on Mitochondrial Cytochrome b and Nuclear Small Subunit rDNA Sequence Comparisons », J. Phycol. 41, pp. 411-420
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Huan Zhang, Debashish Bhattacharya et Senjie Lin (2005) « Phylogeny of Dinoflagellates Based on Mitochondrial Cytochrome b and Nuclear Small Subunit rDNA Sequence Comparisons », J. Phycol. 41, pp. 411-420
 Sina M. Adl et alii (2005) « The New Higher Level Classification of Eukaryotes », J. Eukaryot. Microbiol., 52 (5), p. 399–451 
-Jeremiah D. Hackett, Donald M. Anderson, Deana L. Erdner et Debashish Bhattacharya (2004) « Dinoflagellates: a remarkable evolutionary experiment », American Journal of Botany, 91 (10), pp. 1523–1534
-Autres sources bibliographiques
-Sources internet
-Liens internes
-Arbre phylogénétique
+Jeremiah D. Hackett, Donald M. Anderson, Deana L. Erdner et Debashish Bhattacharya (2004) « Dinoflagellates: a remarkable evolutionary experiment », American Journal of Botany, 91 (10), pp. 1523–1534</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dinoflagellata_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinoflagellata_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique
 Dinoflagellata -- Dinoflagellé
 Le vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
